--- a/actions/Activities.xlsx
+++ b/actions/Activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalbers1\Documents\virtual_coach_human_inv\actions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6615BE-5295-44A7-A68A-AC3612B756E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAB7757-AB8F-481E-93A3-D3270DAC6BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
@@ -922,21 +922,9 @@
     <t>Formulation Email</t>
   </si>
   <si>
-    <t>13|43</t>
-  </si>
-  <si>
-    <t>12|43</t>
-  </si>
-  <si>
-    <t>12|13</t>
-  </si>
-  <si>
     <t>4|24</t>
   </si>
   <si>
-    <t>5|25</t>
-  </si>
-  <si>
     <t>Having high aspiration to quit smoking may aid in quitting successfully. Thus, before the next session, I advise you to think about the person that you would like to be once you have successfully quit smoking. For example, you might want to be a "strong woman who lives a healthy life" or a "father who is a good role model for his children." Then look for or take a picture that best captures your desired future self. Save or print this picture so that you can see it every day.</t>
   </si>
   <si>
@@ -1094,6 +1082,18 @@
   </si>
   <si>
     <t>How friends and/or family will receive one's desired future self after becoming more physically active</t>
+  </si>
+  <si>
+    <t>3|23</t>
+  </si>
+  <si>
+    <t>12|36</t>
+  </si>
+  <si>
+    <t>11|36</t>
+  </si>
+  <si>
+    <t>11|12</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1177,6 +1177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1206,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1272,6 +1278,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1592,9 +1601,9 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,11 +1660,11 @@
         <v>117</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="F2" s="25">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>96</v>
@@ -1678,11 +1687,11 @@
         <v>118</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="11">
+      <c r="F3" s="25">
         <v>0</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>97</v>
@@ -1705,14 +1714,12 @@
         <v>119</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>98</v>
@@ -1732,11 +1739,11 @@
         <v>120</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>24</v>
+      <c r="F5" s="25">
+        <v>23</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>76</v>
@@ -1759,11 +1766,11 @@
         <v>121</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <v>25</v>
+      <c r="F6" s="25">
+        <v>24</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>77</v>
@@ -1788,7 +1795,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>78</v>
@@ -1813,7 +1820,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>79</v>
@@ -1836,11 +1843,11 @@
         <v>124</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>9</v>
+      <c r="F9" s="25">
+        <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>2</v>
@@ -1863,11 +1870,11 @@
         <v>125</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="11">
-        <v>8</v>
+      <c r="F10" s="25">
+        <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>80</v>
@@ -1881,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>51</v>
@@ -1889,17 +1896,17 @@
       <c r="D11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="7">
-        <v>11</v>
+      <c r="E11" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="25">
+        <v>10</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>104</v>
@@ -1910,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>52</v>
@@ -1918,17 +1925,17 @@
       <c r="D12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="11">
-        <v>10</v>
+      <c r="E12" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="25">
+        <v>9</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>104</v>
@@ -1948,14 +1955,14 @@
         <v>151</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>156</v>
+      <c r="F13" s="25" t="s">
+        <v>211</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>112</v>
@@ -1975,14 +1982,14 @@
         <v>152</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>157</v>
+      <c r="F14" s="25" t="s">
+        <v>212</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>112</v>
@@ -1996,20 +2003,20 @@
         <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>15</v>
+      <c r="F15" s="25">
+        <v>14</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>105</v>
@@ -2023,20 +2030,20 @@
         <v>60</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="11">
-        <v>14</v>
+      <c r="F16" s="25">
+        <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>105</v>
@@ -2058,7 +2065,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>3</v>
@@ -2083,7 +2090,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>81</v>
@@ -2106,11 +2113,11 @@
         <v>132</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7">
-        <v>20</v>
+      <c r="F19" s="25">
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>82</v>
@@ -2133,11 +2140,11 @@
         <v>133</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="11">
-        <v>21</v>
+      <c r="F20" s="25">
+        <v>20</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>83</v>
@@ -2160,11 +2167,11 @@
         <v>134</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7">
-        <v>18</v>
+      <c r="F21" s="25">
+        <v>17</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>84</v>
@@ -2187,11 +2194,11 @@
         <v>135</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="11">
-        <v>19</v>
+      <c r="F22" s="25">
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>85</v>
@@ -2214,11 +2221,11 @@
         <v>136</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>23</v>
+      <c r="F23" s="25">
+        <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>86</v>
@@ -2241,11 +2248,11 @@
         <v>138</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="11">
-        <v>22</v>
+      <c r="F24" s="25">
+        <v>21</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>87</v>
@@ -2268,14 +2275,14 @@
         <v>137</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="7">
-        <v>4</v>
+      <c r="F25" s="25">
+        <v>3</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>107</v>
@@ -2295,11 +2302,11 @@
         <v>139</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="11">
-        <v>5</v>
+      <c r="F26" s="25">
+        <v>4</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>88</v>
@@ -2324,10 +2331,10 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>105</v>
@@ -2346,12 +2353,12 @@
       <c r="D28" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="7">
-        <v>16</v>
+      <c r="E28" s="25">
+        <v>15</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>0</v>
@@ -2365,7 +2372,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
@@ -2373,12 +2380,12 @@
       <c r="D29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="7">
-        <v>16</v>
+      <c r="E29" s="25">
+        <v>15</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>89</v>
@@ -2403,7 +2410,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>1</v>
@@ -2426,11 +2433,11 @@
         <v>144</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7">
-        <v>32</v>
+      <c r="F31" s="25">
+        <v>30</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>90</v>
@@ -2453,14 +2460,14 @@
         <v>145</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7">
-        <v>31</v>
+      <c r="F32" s="25">
+        <v>29</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>94</v>
@@ -2482,7 +2489,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>95</v>
@@ -2507,7 +2514,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>91</v>
@@ -2529,12 +2536,12 @@
       <c r="D35" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="11">
-        <v>17</v>
+      <c r="E35" s="25">
+        <v>16</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>92</v>
@@ -2556,12 +2563,12 @@
       <c r="D36" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="11">
-        <v>17</v>
+      <c r="E36" s="25">
+        <v>16</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>93</v>
@@ -2586,10 +2593,10 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>111</v>
@@ -2609,14 +2616,14 @@
         <v>153</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="16" t="s">
-        <v>158</v>
+      <c r="F38" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>112</v>
